--- a/medicine/Enfance/Christine_Davenier/Christine_Davenier.xlsx
+++ b/medicine/Enfance/Christine_Davenier/Christine_Davenier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christine Davenier est une autrice et illustratrice française de livres pour enfants, née en 1961 à Tours, France. Elle a illustré un grand nombre de livres, dont les auteurs Julie Andrews et sa fille Emma Walton Hamilton, ou Madeleine L'Engle.
 </t>
@@ -513,14 +525,124 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance
-Christine  Davenier est née en 1961 à Tours, France[1],[2]. Elle a décrit sa grand-mère (de qui elle a reçu en cadeau une boîte de peintures à l'aquarelle à l'âge de quatorze ans) comme une énorme source d'inspiration artistique pour elle[3].
-Études et expérience d'enseignante
-En 1979, elle obtient son baccalauréat option mathématique et science de la nature. Elle se dédie au métier d'institutrice, et passe deux ans à l’École normale d'instituteurs d'Angers. De 1982 à 1984, elle fait ses études à l’École nationale des arts appliqués de Paris. De 1986 à 1989, elle enseigne dans une école primaire à Paris.
-Séjour aux États-Unis
-En 1990, elle vit deux ans aux États-Unis, pour suivre des cours d’illustration à la Rhode Island School of Design de Providence[4]. Un agent continue de valoriser son travail sur place depuis.
-Retour en France, autrice et illustratrice
-À son retour en France, elle se lance dans son travail d'illustratrice, à la fois pour des éditeurs américains et français.
+          <t>Enfance</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christine  Davenier est née en 1961 à Tours, France,. Elle a décrit sa grand-mère (de qui elle a reçu en cadeau une boîte de peintures à l'aquarelle à l'âge de quatorze ans) comme une énorme source d'inspiration artistique pour elle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Christine_Davenier</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christine_Davenier</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Études et expérience d'enseignante</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1979, elle obtient son baccalauréat option mathématique et science de la nature. Elle se dédie au métier d'institutrice, et passe deux ans à l’École normale d'instituteurs d'Angers. De 1982 à 1984, elle fait ses études à l’École nationale des arts appliqués de Paris. De 1986 à 1989, elle enseigne dans une école primaire à Paris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Christine_Davenier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christine_Davenier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Séjour aux États-Unis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1990, elle vit deux ans aux États-Unis, pour suivre des cours d’illustration à la Rhode Island School of Design de Providence. Un agent continue de valoriser son travail sur place depuis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Christine_Davenier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christine_Davenier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Retour en France, autrice et illustratrice</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À son retour en France, elle se lance dans son travail d'illustratrice, à la fois pour des éditeurs américains et français.
 Depuis 1992 elle anime des conférences et des ateliers autour de la littérature jeunesse. Elle intervient également dans des écoles primaires pour présenter son travail et développer l'éducation artistique et culturelle.
 Depuis 1995 elle publie ses illustrations pour la presse française et américaine, à la fois adulte (Top Famille Magazine, Parents…) et dans des magazines pour et jeunesse (Wakou, Toboggan, Toupie, Nick Junior…).
 Elle vit actuellement à Paris.
@@ -528,33 +650,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Christine_Davenier</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Christine_Davenier</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Accueil critique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deborah Stevenson, du Bulletin of the Center for Children's Books, a fait l'éloge de ses illustrations à l'aquarelle pour Leon et Albertine, déclarant qu'ils possèdent une "insouciance apparente ajoutant à la sensation de mouvement" [5]. Une critique dans Publishers Weekly a fait l'éloge des "aquarelles lumineuses et des caractérisations vives de Davenier" dans Just Like a Baby[6]. The First Thing My Mama Told Me, écrit par Susan Marie Swanson et illustré par Davenier, était un livre d'honneur du prix Charlotte Zolotow 2003[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deborah Stevenson, du Bulletin of the Center for Children's Books, a fait l'éloge de ses illustrations à l'aquarelle pour Leon et Albertine, déclarant qu'ils possèdent une "insouciance apparente ajoutant à la sensation de mouvement" . Une critique dans Publishers Weekly a fait l'éloge des "aquarelles lumineuses et des caractérisations vives de Davenier" dans Just Like a Baby. The First Thing My Mama Told Me, écrit par Susan Marie Swanson et illustré par Davenier, était un livre d'honneur du prix Charlotte Zolotow 2003.
 </t>
         </is>
       </c>
